--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3532C2A7-35B0-43A8-8486-0070658E78B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83691606-AEC4-45B2-8D37-EB4A8EBA4731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22095" yWindow="3495" windowWidth="19275" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -277,50 +277,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,7 +633,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -651,68 +654,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
@@ -724,19 +727,19 @@
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="14" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -744,21 +747,21 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="15"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -770,7 +773,7 @@
       <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -782,7 +785,7 @@
       <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
@@ -795,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="E8" s="16">
         <v>4.0999999999999996</v>
       </c>
       <c r="F8" s="2"/>
@@ -803,8 +806,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="4">
+      <c r="K8" s="5"/>
+      <c r="L8" s="17">
         <f>SUM(D8:K8)</f>
         <v>4.0999999999999996</v>
       </c>
@@ -820,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="E9" s="16">
         <v>9.6999999999999993</v>
       </c>
       <c r="F9" s="2"/>
@@ -828,8 +831,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="4">
+      <c r="K9" s="5"/>
+      <c r="L9" s="17">
         <f t="shared" ref="L9:L12" si="0">SUM(D9:K9)</f>
         <v>9.6999999999999993</v>
       </c>
@@ -845,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
+      <c r="E10" s="16">
         <v>6.85</v>
       </c>
       <c r="F10" s="2"/>
@@ -853,8 +856,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="4">
+      <c r="K10" s="5"/>
+      <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>6.85</v>
       </c>
@@ -870,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="E11" s="16">
         <v>7.5</v>
       </c>
       <c r="F11" s="2"/>
@@ -878,8 +881,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="4">
+      <c r="K11" s="5"/>
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -895,7 +898,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2">
+      <c r="E12" s="16">
         <v>5.6</v>
       </c>
       <c r="F12" s="2"/>
@@ -903,8 +906,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="4">
+      <c r="K12" s="5"/>
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
@@ -912,16 +915,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:G6"/>
     <mergeCell ref="H5:K6"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83691606-AEC4-45B2-8D37-EB4A8EBA4731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E1B0A-5C06-4E93-95DF-F73C8E13054C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22095" yWindow="3495" windowWidth="19275" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,25 +290,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,10 +305,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -654,113 +657,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="13" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
@@ -785,7 +788,7 @@
       <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
@@ -798,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="16">
+      <c r="E8" s="6">
         <v>4.0999999999999996</v>
       </c>
       <c r="F8" s="2"/>
@@ -807,7 +810,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="17">
+      <c r="L8" s="7">
         <f>SUM(D8:K8)</f>
         <v>4.0999999999999996</v>
       </c>
@@ -823,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="16">
+      <c r="E9" s="6">
         <v>9.6999999999999993</v>
       </c>
       <c r="F9" s="2"/>
@@ -832,7 +835,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="17">
+      <c r="L9" s="7">
         <f t="shared" ref="L9:L12" si="0">SUM(D9:K9)</f>
         <v>9.6999999999999993</v>
       </c>
@@ -848,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="16">
+      <c r="E10" s="6">
         <v>6.85</v>
       </c>
       <c r="F10" s="2"/>
@@ -857,7 +860,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="17">
+      <c r="L10" s="7">
         <f t="shared" si="0"/>
         <v>6.85</v>
       </c>
@@ -873,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="16">
+      <c r="E11" s="6">
         <v>7.5</v>
       </c>
       <c r="F11" s="2"/>
@@ -882,7 +885,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="17">
+      <c r="L11" s="7">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -898,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="16">
+      <c r="E12" s="6">
         <v>5.6</v>
       </c>
       <c r="F12" s="2"/>
@@ -907,9 +910,15 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="17">
+      <c r="L12" s="7">
         <f t="shared" si="0"/>
         <v>5.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="18">
+        <f>AVERAGE(E8:E12)</f>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E1B0A-5C06-4E93-95DF-F73C8E13054C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E65F1-0FBB-4C52-AD69-7A50E6134ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22095" yWindow="3495" windowWidth="19275" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -125,19 +125,6 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,10 +283,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,7 +310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,134 +620,134 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="8" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
@@ -788,9 +772,9 @@
       <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -815,7 +799,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -840,7 +824,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -865,7 +849,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -890,7 +874,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -915,8 +899,8 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="18">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="E13" s="8">
         <f>AVERAGE(E8:E12)</f>
         <v>6.75</v>
       </c>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E65F1-0FBB-4C52-AD69-7A50E6134ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EAD2D6-EC7E-4906-8589-1497EB94FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -101,16 +101,22 @@
     <t>SUMMARY</t>
   </si>
   <si>
-    <t>LAB&amp;&amp;WORK (10)</t>
-  </si>
-  <si>
     <t>Midterm (25)</t>
+  </si>
+  <si>
+    <t>WORK (5)</t>
+  </si>
+  <si>
+    <t>LAB (5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -260,11 +266,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,16 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -310,7 +329,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -628,153 +662,173 @@
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="17" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -784,22 +838,26 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7">
-        <f>SUM(D8:K8)</f>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <v>5</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18">
+        <f>SUM(E8:M8)</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -809,22 +867,26 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="7">
-        <f t="shared" ref="L9:L12" si="0">SUM(D9:K9)</f>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <v>5</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18">
+        <f t="shared" ref="N9:N12" si="0">SUM(E9:M9)</f>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -834,22 +896,26 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
         <v>6.85</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <v>5</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18">
         <f t="shared" si="0"/>
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.8">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -859,22 +925,26 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
         <v>7.5</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
+        <v>5</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -884,40 +954,57 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
         <v>5.6</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18">
         <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="E13" s="8">
-        <f>AVERAGE(E8:E12)</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19">
+        <f>AVERAGE(F8:F12)</f>
         <v>6.75</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19">
+        <f>AVERAGE(N8:N12)</f>
+        <v>11.75</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="D5:H6"/>
+    <mergeCell ref="I5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EAD2D6-EC7E-4906-8589-1497EB94FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25782AC7-94B9-4068-85C5-579BE558CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -302,6 +302,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,18 +345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,148 +654,148 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="5" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
@@ -826,9 +826,9 @@
       <c r="M7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -838,26 +838,30 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7">
         <f>SUM(E8:M8)</f>
         <v>9.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -867,26 +871,26 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7">
         <f t="shared" ref="N9:N12" si="0">SUM(E9:M9)</f>
         <v>14.7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -896,26 +900,26 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>6.85</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
         <v>11.85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -925,26 +929,26 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>7.5</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -954,40 +958,40 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>5.6</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <f>AVERAGE(F8:F12)</f>
         <v>6.75</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8">
         <f>AVERAGE(N8:N12)</f>
         <v>11.75</v>
       </c>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25782AC7-94B9-4068-85C5-579BE558CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B04993-E8E6-41ED-8CAD-0D8C4190477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -847,7 +847,9 @@
       <c r="F8" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="H8" s="5">
         <v>5</v>
       </c>
@@ -857,8 +859,8 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7">
-        <f>SUM(E8:M8)</f>
-        <v>9.1</v>
+        <f>SUM(D8:M8)</f>
+        <v>19.799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -871,12 +873,18 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
       <c r="F9" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>20.8</v>
+      </c>
       <c r="H9" s="5">
         <v>5</v>
       </c>
@@ -886,8 +894,8 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:N12" si="0">SUM(E9:M9)</f>
-        <v>14.7</v>
+        <f t="shared" ref="N9:N12" si="0">SUM(D9:M9)</f>
+        <v>45.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -900,12 +908,18 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
       <c r="F10" s="5">
         <v>6.85</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>12.8</v>
+      </c>
       <c r="H10" s="5">
         <v>5</v>
       </c>
@@ -916,7 +930,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="7">
         <f t="shared" si="0"/>
-        <v>11.85</v>
+        <v>34.650000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -929,12 +943,18 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
       <c r="F11" s="5">
         <v>7.5</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>14.6</v>
+      </c>
       <c r="H11" s="5">
         <v>5</v>
       </c>
@@ -945,7 +965,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="7">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -958,12 +978,18 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
       <c r="F12" s="5">
         <v>5.6</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>12.5</v>
+      </c>
       <c r="H12" s="5">
         <v>5</v>
       </c>
@@ -974,7 +1000,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7">
         <f t="shared" si="0"/>
-        <v>10.6</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -993,7 +1019,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8">
         <f>AVERAGE(N8:N12)</f>
-        <v>11.75</v>
+        <v>33.83</v>
       </c>
     </row>
   </sheetData>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/SCORE_306.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B04993-E8E6-41ED-8CAD-0D8C4190477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E144DF-B7C8-448C-AEDA-CB4164FAC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -654,29 +654,29 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -776,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -792,7 +792,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -863,7 +863,7 @@
         <v>19.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -898,7 +898,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -933,7 +933,7 @@
         <v>34.650000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -968,7 +968,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1003,14 +1003,17 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.8">
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <f>AVERAGE(F8:F12)</f>
         <v>6.75</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <f>AVERAGE(G8:G12)</f>
+        <v>14.080000000000002</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
